--- a/設計書/01.基本設計/02.画面設計/画面設計書(購入履歴).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(購入履歴).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5881A785-B82A-42F3-AF27-39D9CB7D951A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B5AD38-8724-4652-8F30-08E9FB2DE188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>システム名</t>
   </si>
@@ -217,12 +217,75 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>戻るボタン</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>押下するとユーザーメニュー画面へ遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2019/11/08 JTM14 対応　岩田侑大</t>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ユウダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2019/11/07</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>岩田侑大</t>
+    <rPh sb="0" eb="2">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -267,6 +330,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
       <family val="3"/>
     </font>
@@ -592,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -637,31 +706,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,6 +723,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -687,28 +742,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -725,7 +771,35 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1491,6 +1565,79 @@
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="285750" cy="285750"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Shape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B66659B-43F5-454C-90C9-639A5E78FF99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="3429000"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20833"/>
+            <a:gd name="adj2" fmla="val 62500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="hlink"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="8000"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="FF0000"/>
+            </a:buClr>
+            <a:buSzPts val="275"/>
+            <a:buFont typeface="Arial"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1796,8 +1943,8 @@
   </sheetPr>
   <dimension ref="A1:CD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1807,193 +1954,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="43" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="34" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="44" t="s">
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="47"/>
+      <c r="BF1" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
-      <c r="BJ1" s="38"/>
-      <c r="BK1" s="38"/>
-      <c r="BL1" s="38"/>
-      <c r="BM1" s="38"/>
-      <c r="BN1" s="39"/>
-      <c r="BO1" s="34" t="s">
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="50"/>
+      <c r="BO1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
-      <c r="BR1" s="35"/>
-      <c r="BS1" s="36"/>
-      <c r="BT1" s="58" t="s">
+      <c r="BP1" s="46"/>
+      <c r="BQ1" s="46"/>
+      <c r="BR1" s="46"/>
+      <c r="BS1" s="47"/>
+      <c r="BT1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="BU1" s="35"/>
-      <c r="BV1" s="35"/>
-      <c r="BW1" s="35"/>
-      <c r="BX1" s="35"/>
-      <c r="BY1" s="35"/>
-      <c r="BZ1" s="35"/>
-      <c r="CA1" s="35"/>
-      <c r="CB1" s="59"/>
+      <c r="BU1" s="46"/>
+      <c r="BV1" s="46"/>
+      <c r="BW1" s="46"/>
+      <c r="BX1" s="46"/>
+      <c r="BY1" s="46"/>
+      <c r="BZ1" s="46"/>
+      <c r="CA1" s="46"/>
+      <c r="CB1" s="55"/>
       <c r="CC1" s="1"/>
       <c r="CD1" s="1"/>
     </row>
     <row r="2" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="42" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="37" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="37" t="s">
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="39"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
-      <c r="BJ2" s="38"/>
-      <c r="BK2" s="38"/>
-      <c r="BL2" s="38"/>
-      <c r="BM2" s="38"/>
-      <c r="BN2" s="39"/>
-      <c r="BO2" s="37" t="s">
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="50"/>
+      <c r="BF2" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="50"/>
+      <c r="BO2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="BP2" s="38"/>
-      <c r="BQ2" s="38"/>
-      <c r="BR2" s="38"/>
-      <c r="BS2" s="39"/>
-      <c r="BT2" s="58"/>
-      <c r="BU2" s="35"/>
-      <c r="BV2" s="35"/>
-      <c r="BW2" s="35"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="35"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="59"/>
-      <c r="CC2" s="1"/>
+      <c r="BP2" s="49"/>
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="50"/>
+      <c r="BT2" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" s="46"/>
+      <c r="BV2" s="46"/>
+      <c r="BW2" s="46"/>
+      <c r="BX2" s="46"/>
+      <c r="BY2" s="46"/>
+      <c r="BZ2" s="46"/>
+      <c r="CA2" s="46"/>
+      <c r="CB2" s="55"/>
+      <c r="CC2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="CD2" s="1"/>
     </row>
     <row r="3" spans="1:82" ht="14.25" customHeight="1">
@@ -2209,51 +2362,51 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
-      <c r="AQ5" s="53" t="s">
+      <c r="AQ5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="47" t="s">
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="49"/>
-      <c r="AZ5" s="47" t="s">
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="49"/>
-      <c r="BE5" s="47" t="s">
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="48"/>
-      <c r="BK5" s="48"/>
-      <c r="BL5" s="48"/>
-      <c r="BM5" s="48"/>
-      <c r="BN5" s="48"/>
-      <c r="BO5" s="48"/>
-      <c r="BP5" s="48"/>
-      <c r="BQ5" s="48"/>
-      <c r="BR5" s="48"/>
-      <c r="BS5" s="48"/>
-      <c r="BT5" s="48"/>
-      <c r="BU5" s="48"/>
-      <c r="BV5" s="48"/>
-      <c r="BW5" s="48"/>
-      <c r="BX5" s="48"/>
-      <c r="BY5" s="48"/>
-      <c r="BZ5" s="48"/>
-      <c r="CA5" s="56"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="38"/>
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="38"/>
+      <c r="BO5" s="38"/>
+      <c r="BP5" s="38"/>
+      <c r="BQ5" s="38"/>
+      <c r="BR5" s="38"/>
+      <c r="BS5" s="38"/>
+      <c r="BT5" s="38"/>
+      <c r="BU5" s="38"/>
+      <c r="BV5" s="38"/>
+      <c r="BW5" s="38"/>
+      <c r="BX5" s="38"/>
+      <c r="BY5" s="38"/>
+      <c r="BZ5" s="38"/>
+      <c r="CA5" s="52"/>
       <c r="CB5" s="13"/>
       <c r="CC5" s="8"/>
       <c r="CD5" s="8"/>
@@ -2301,43 +2454,43 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
-      <c r="AQ6" s="54"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="50"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="50"/>
-      <c r="BA6" s="51"/>
-      <c r="BB6" s="51"/>
-      <c r="BC6" s="51"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="50"/>
-      <c r="BF6" s="51"/>
-      <c r="BG6" s="51"/>
-      <c r="BH6" s="51"/>
-      <c r="BI6" s="51"/>
-      <c r="BJ6" s="51"/>
-      <c r="BK6" s="51"/>
-      <c r="BL6" s="51"/>
-      <c r="BM6" s="51"/>
-      <c r="BN6" s="51"/>
-      <c r="BO6" s="51"/>
-      <c r="BP6" s="51"/>
-      <c r="BQ6" s="51"/>
-      <c r="BR6" s="51"/>
-      <c r="BS6" s="51"/>
-      <c r="BT6" s="51"/>
-      <c r="BU6" s="51"/>
-      <c r="BV6" s="51"/>
-      <c r="BW6" s="51"/>
-      <c r="BX6" s="51"/>
-      <c r="BY6" s="51"/>
-      <c r="BZ6" s="51"/>
-      <c r="CA6" s="57"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="41"/>
+      <c r="AX6" s="41"/>
+      <c r="AY6" s="42"/>
+      <c r="AZ6" s="40"/>
+      <c r="BA6" s="41"/>
+      <c r="BB6" s="41"/>
+      <c r="BC6" s="41"/>
+      <c r="BD6" s="42"/>
+      <c r="BE6" s="40"/>
+      <c r="BF6" s="41"/>
+      <c r="BG6" s="41"/>
+      <c r="BH6" s="41"/>
+      <c r="BI6" s="41"/>
+      <c r="BJ6" s="41"/>
+      <c r="BK6" s="41"/>
+      <c r="BL6" s="41"/>
+      <c r="BM6" s="41"/>
+      <c r="BN6" s="41"/>
+      <c r="BO6" s="41"/>
+      <c r="BP6" s="41"/>
+      <c r="BQ6" s="41"/>
+      <c r="BR6" s="41"/>
+      <c r="BS6" s="41"/>
+      <c r="BT6" s="41"/>
+      <c r="BU6" s="41"/>
+      <c r="BV6" s="41"/>
+      <c r="BW6" s="41"/>
+      <c r="BX6" s="41"/>
+      <c r="BY6" s="41"/>
+      <c r="BZ6" s="41"/>
+      <c r="CA6" s="53"/>
       <c r="CB6" s="13"/>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
@@ -2384,11 +2537,11 @@
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
-      <c r="AQ7" s="45" t="s">
+      <c r="AQ7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="74" t="s">
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="34" t="s">
         <v>16</v>
       </c>
       <c r="AT7" s="4"/>
@@ -2643,10 +2796,10 @@
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
-      <c r="AQ10" s="45" t="s">
+      <c r="AQ10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AR10" s="46"/>
+      <c r="AR10" s="36"/>
       <c r="AS10" s="4" t="s">
         <v>19</v>
       </c>
@@ -2901,10 +3054,10 @@
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
-      <c r="AQ13" s="45" t="s">
+      <c r="AQ13" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AR13" s="46"/>
+      <c r="AR13" s="36"/>
       <c r="AS13" s="17" t="s">
         <v>21</v>
       </c>
@@ -2914,7 +3067,9 @@
       <c r="AW13" s="4"/>
       <c r="AX13" s="4"/>
       <c r="AY13" s="14"/>
-      <c r="AZ13" s="4"/>
+      <c r="AZ13" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="BA13" s="4"/>
       <c r="BB13" s="4"/>
       <c r="BC13" s="4"/>
@@ -2991,8 +3146,8 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
-      <c r="AQ14" s="45"/>
-      <c r="AR14" s="46"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="36"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
       <c r="AU14" s="8"/>
@@ -3160,21 +3315,29 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="46"/>
-      <c r="AS16" s="4"/>
+      <c r="AQ16" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="76" t="s">
+        <v>29</v>
+      </c>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
       <c r="AW16" s="4"/>
       <c r="AX16" s="4"/>
       <c r="AY16" s="14"/>
-      <c r="AZ16" s="4"/>
+      <c r="AZ16" s="76" t="s">
+        <v>30</v>
+      </c>
       <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
       <c r="BC16" s="4"/>
       <c r="BD16" s="14"/>
-      <c r="BE16" s="4"/>
+      <c r="BE16" s="76" t="s">
+        <v>32</v>
+      </c>
       <c r="BF16" s="8"/>
       <c r="BG16" s="8"/>
       <c r="BH16" s="8"/>
@@ -3265,7 +3428,9 @@
       <c r="BI17" s="8"/>
       <c r="BJ17" s="4"/>
       <c r="BK17" s="4"/>
-      <c r="BL17" s="4"/>
+      <c r="BL17" s="77" t="s">
+        <v>33</v>
+      </c>
       <c r="BM17" s="4"/>
       <c r="BN17" s="4"/>
       <c r="BO17" s="4"/>
@@ -3328,8 +3493,8 @@
       <c r="AN18" s="8"/>
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
-      <c r="AQ18" s="45"/>
-      <c r="AR18" s="46"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="36"/>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
       <c r="AU18" s="4"/>
@@ -3496,8 +3661,8 @@
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="46"/>
+      <c r="AQ20" s="35"/>
+      <c r="AR20" s="36"/>
       <c r="AS20" s="4"/>
       <c r="AT20" s="4"/>
       <c r="AU20" s="4"/>
@@ -3663,8 +3828,8 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="46"/>
+      <c r="AQ22" s="35"/>
+      <c r="AR22" s="36"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
@@ -3747,8 +3912,8 @@
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
       <c r="AP23" s="8"/>
-      <c r="AQ23" s="45"/>
-      <c r="AR23" s="46"/>
+      <c r="AQ23" s="35"/>
+      <c r="AR23" s="36"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="4"/>
       <c r="AU23" s="4"/>
@@ -3831,8 +3996,8 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
       <c r="AP24" s="8"/>
-      <c r="AQ24" s="45"/>
-      <c r="AR24" s="46"/>
+      <c r="AQ24" s="35"/>
+      <c r="AR24" s="36"/>
       <c r="AZ24" s="12"/>
       <c r="BE24" s="12"/>
       <c r="BJ24" s="4"/>
@@ -3900,8 +4065,8 @@
       <c r="AN25" s="8"/>
       <c r="AO25" s="8"/>
       <c r="AP25" s="8"/>
-      <c r="AQ25" s="45"/>
-      <c r="AR25" s="46"/>
+      <c r="AQ25" s="35"/>
+      <c r="AR25" s="36"/>
       <c r="AZ25" s="12"/>
       <c r="BE25" s="12"/>
       <c r="BJ25" s="4"/>
@@ -3969,8 +4134,8 @@
       <c r="AN26" s="8"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="8"/>
-      <c r="AQ26" s="45"/>
-      <c r="AR26" s="46"/>
+      <c r="AQ26" s="35"/>
+      <c r="AR26" s="36"/>
       <c r="AZ26" s="12"/>
       <c r="BE26" s="12"/>
       <c r="BJ26" s="4"/>
@@ -4038,8 +4203,8 @@
       <c r="AN27" s="8"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="8"/>
-      <c r="AQ27" s="45"/>
-      <c r="AR27" s="46"/>
+      <c r="AQ27" s="35"/>
+      <c r="AR27" s="36"/>
       <c r="AZ27" s="12"/>
       <c r="BE27" s="12"/>
       <c r="BJ27" s="8"/>
@@ -4107,8 +4272,8 @@
       <c r="AN28" s="8"/>
       <c r="AO28" s="8"/>
       <c r="AP28" s="8"/>
-      <c r="AQ28" s="45"/>
-      <c r="AR28" s="46"/>
+      <c r="AQ28" s="35"/>
+      <c r="AR28" s="36"/>
       <c r="AZ28" s="12"/>
       <c r="BE28" s="12"/>
       <c r="BJ28" s="8"/>
@@ -4176,8 +4341,8 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
       <c r="AP29" s="8"/>
-      <c r="AQ29" s="45"/>
-      <c r="AR29" s="46"/>
+      <c r="AQ29" s="35"/>
+      <c r="AR29" s="36"/>
       <c r="AZ29" s="12"/>
       <c r="BE29" s="12"/>
       <c r="BJ29" s="8"/>
@@ -4245,8 +4410,8 @@
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="46"/>
+      <c r="AQ30" s="35"/>
+      <c r="AR30" s="36"/>
       <c r="AZ30" s="12"/>
       <c r="BE30" s="12"/>
       <c r="BJ30" s="8"/>
@@ -4314,8 +4479,8 @@
       <c r="AN31" s="8"/>
       <c r="AO31" s="8"/>
       <c r="AP31" s="8"/>
-      <c r="AQ31" s="45"/>
-      <c r="AR31" s="46"/>
+      <c r="AQ31" s="35"/>
+      <c r="AR31" s="36"/>
       <c r="AZ31" s="12"/>
       <c r="BE31" s="12"/>
       <c r="BJ31" s="8"/>
@@ -4383,8 +4548,8 @@
       <c r="AN32" s="8"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="8"/>
-      <c r="AQ32" s="45"/>
-      <c r="AR32" s="46"/>
+      <c r="AQ32" s="35"/>
+      <c r="AR32" s="36"/>
       <c r="AZ32" s="12"/>
       <c r="BE32" s="12"/>
       <c r="BJ32" s="8"/>
@@ -4452,8 +4617,8 @@
       <c r="AN33" s="8"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
-      <c r="AQ33" s="45"/>
-      <c r="AR33" s="46"/>
+      <c r="AQ33" s="35"/>
+      <c r="AR33" s="36"/>
       <c r="AZ33" s="12"/>
       <c r="BE33" s="12"/>
       <c r="BJ33" s="8"/>
@@ -4521,8 +4686,8 @@
       <c r="AN34" s="8"/>
       <c r="AO34" s="8"/>
       <c r="AP34" s="8"/>
-      <c r="AQ34" s="45"/>
-      <c r="AR34" s="46"/>
+      <c r="AQ34" s="35"/>
+      <c r="AR34" s="36"/>
       <c r="AZ34" s="12"/>
       <c r="BE34" s="12"/>
       <c r="BJ34" s="8"/>
@@ -4674,8 +4839,8 @@
       <c r="AN36" s="8"/>
       <c r="AO36" s="8"/>
       <c r="AP36" s="8"/>
-      <c r="AQ36" s="45"/>
-      <c r="AR36" s="46"/>
+      <c r="AQ36" s="35"/>
+      <c r="AR36" s="36"/>
       <c r="AS36" s="4"/>
       <c r="AT36" s="4"/>
       <c r="AU36" s="4"/>
@@ -6143,20 +6308,13 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AQ16:AR16"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AQ20:AR20"/>
-    <mergeCell ref="AS5:AY6"/>
-    <mergeCell ref="AQ5:AR6"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BA2:BE2"/>
-    <mergeCell ref="AZ5:BD6"/>
-    <mergeCell ref="AE2:AZ2"/>
-    <mergeCell ref="BE5:CA6"/>
-    <mergeCell ref="BT1:CB1"/>
-    <mergeCell ref="BT2:CB2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="F1:AZ1"/>
+    <mergeCell ref="BF2:BN2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="BF1:BN1"/>
     <mergeCell ref="AQ36:AR36"/>
     <mergeCell ref="AQ34:AR34"/>
     <mergeCell ref="AQ31:AR31"/>
@@ -6173,15 +6331,22 @@
     <mergeCell ref="AQ26:AR26"/>
     <mergeCell ref="AQ28:AR28"/>
     <mergeCell ref="AQ27:AR27"/>
+    <mergeCell ref="AS5:AY6"/>
+    <mergeCell ref="AQ5:AR6"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="AZ5:BD6"/>
+    <mergeCell ref="AE2:AZ2"/>
+    <mergeCell ref="BE5:CA6"/>
+    <mergeCell ref="BT1:CB1"/>
+    <mergeCell ref="BT2:CB2"/>
     <mergeCell ref="BO1:BS1"/>
     <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="F1:AZ1"/>
-    <mergeCell ref="BF2:BN2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="BF1:BN1"/>
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AQ20:AR20"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6205,168 +6370,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="61" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="36"/>
-      <c r="BK1" s="61" t="s">
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46"/>
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="47"/>
+      <c r="BK1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="36"/>
-      <c r="BP1" s="69"/>
-      <c r="BQ1" s="35"/>
-      <c r="BR1" s="35"/>
-      <c r="BS1" s="35"/>
-      <c r="BT1" s="35"/>
-      <c r="BU1" s="35"/>
+      <c r="BL1" s="46"/>
+      <c r="BM1" s="46"/>
+      <c r="BN1" s="46"/>
+      <c r="BO1" s="47"/>
+      <c r="BP1" s="62"/>
+      <c r="BQ1" s="46"/>
+      <c r="BR1" s="46"/>
+      <c r="BS1" s="46"/>
+      <c r="BT1" s="46"/>
+      <c r="BU1" s="46"/>
     </row>
     <row r="2" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="65" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="65" t="s">
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="38"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
-      <c r="BJ2" s="39"/>
-      <c r="BK2" s="65" t="s">
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="50"/>
+      <c r="BK2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="BL2" s="38"/>
-      <c r="BM2" s="38"/>
-      <c r="BN2" s="38"/>
-      <c r="BO2" s="39"/>
-      <c r="BP2" s="68"/>
-      <c r="BQ2" s="38"/>
-      <c r="BR2" s="38"/>
-      <c r="BS2" s="38"/>
-      <c r="BT2" s="38"/>
-      <c r="BU2" s="38"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="50"/>
+      <c r="BP2" s="61"/>
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="49"/>
+      <c r="BT2" s="49"/>
+      <c r="BU2" s="49"/>
     </row>
     <row r="3" spans="1:73" ht="14.25" customHeight="1">
       <c r="A3" s="2"/>
@@ -6557,49 +6722,49 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="70" t="s">
+      <c r="AM5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="71" t="s">
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="49"/>
-      <c r="AV5" s="71" t="s">
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="49"/>
-      <c r="BA5" s="71" t="s">
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="38"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="48"/>
-      <c r="BK5" s="48"/>
-      <c r="BL5" s="48"/>
-      <c r="BM5" s="48"/>
-      <c r="BN5" s="48"/>
-      <c r="BO5" s="48"/>
-      <c r="BP5" s="48"/>
-      <c r="BQ5" s="48"/>
-      <c r="BR5" s="48"/>
-      <c r="BS5" s="48"/>
-      <c r="BT5" s="48"/>
-      <c r="BU5" s="48"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="38"/>
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="38"/>
+      <c r="BO5" s="38"/>
+      <c r="BP5" s="38"/>
+      <c r="BQ5" s="38"/>
+      <c r="BR5" s="38"/>
+      <c r="BS5" s="38"/>
+      <c r="BT5" s="38"/>
+      <c r="BU5" s="38"/>
     </row>
     <row r="6" spans="1:73" ht="14.25">
       <c r="A6" s="5"/>
@@ -6640,41 +6805,41 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="54"/>
-      <c r="AN6" s="52"/>
-      <c r="AO6" s="50"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="50"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="72"/>
-      <c r="BB6" s="73"/>
-      <c r="BC6" s="73"/>
-      <c r="BD6" s="73"/>
-      <c r="BE6" s="73"/>
-      <c r="BF6" s="73"/>
-      <c r="BG6" s="73"/>
-      <c r="BH6" s="73"/>
-      <c r="BI6" s="73"/>
-      <c r="BJ6" s="73"/>
-      <c r="BK6" s="73"/>
-      <c r="BL6" s="73"/>
-      <c r="BM6" s="73"/>
-      <c r="BN6" s="73"/>
-      <c r="BO6" s="73"/>
-      <c r="BP6" s="73"/>
-      <c r="BQ6" s="73"/>
-      <c r="BR6" s="73"/>
-      <c r="BS6" s="73"/>
-      <c r="BT6" s="73"/>
-      <c r="BU6" s="73"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="42"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="42"/>
+      <c r="AV6" s="40"/>
+      <c r="AW6" s="41"/>
+      <c r="AX6" s="41"/>
+      <c r="AY6" s="41"/>
+      <c r="AZ6" s="42"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="66"/>
+      <c r="BC6" s="66"/>
+      <c r="BD6" s="66"/>
+      <c r="BE6" s="66"/>
+      <c r="BF6" s="66"/>
+      <c r="BG6" s="66"/>
+      <c r="BH6" s="66"/>
+      <c r="BI6" s="66"/>
+      <c r="BJ6" s="66"/>
+      <c r="BK6" s="66"/>
+      <c r="BL6" s="66"/>
+      <c r="BM6" s="66"/>
+      <c r="BN6" s="66"/>
+      <c r="BO6" s="66"/>
+      <c r="BP6" s="66"/>
+      <c r="BQ6" s="66"/>
+      <c r="BR6" s="66"/>
+      <c r="BS6" s="66"/>
+      <c r="BT6" s="66"/>
+      <c r="BU6" s="66"/>
     </row>
     <row r="7" spans="1:73" ht="14.25" customHeight="1">
       <c r="A7" s="5"/>
@@ -10128,6 +10293,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="BP2:BU2"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="AM5:AN6"/>
@@ -10141,11 +10311,6 @@
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(購入履歴).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(購入履歴).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seiya/DesignDocs/設計書/01.基本設計/02.画面設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B5AD38-8724-4652-8F30-08E9FB2DE188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965B8B6C-59B9-104A-9BAF-4024204BC51B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,24 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D038784E-1FBC-7842-ACCF-ED8E054F2A51}</author>
+  </authors>
+  <commentList>
+    <comment ref="CC8" authorId="0" shapeId="0" xr:uid="{D038784E-1FBC-7842-ACCF-ED8E054F2A51}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    新規で作ったページは全部赤字か黒字かどちらかで統一されるとよいですね。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -285,7 +303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -295,32 +313,39 @@
       <b/>
       <sz val="14"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -338,6 +363,11 @@
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
     </font>
   </fonts>
   <fills count="3">
@@ -707,6 +737,30 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -726,13 +780,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -742,20 +789,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -777,29 +824,12 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1641,6 +1671,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="seiya" id="{B41EFF33-4E12-124D-B22E-E58E0F47ED7A}" userId="seiya" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1936,214 +1972,222 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="CC8" dT="2019-11-08T08:13:21.19" personId="{B41EFF33-4E12-124D-B22E-E58E0F47ED7A}" id="{D038784E-1FBC-7842-ACCF-ED8E054F2A51}">
+    <text>新規で作ったページは全部赤字か黒字かどちらかで統一されるとよいですね。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:CD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CC8" sqref="CC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="80" width="2" customWidth="1"/>
-    <col min="81" max="82" width="6.875" customWidth="1"/>
+    <col min="81" max="82" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="59" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="45" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="60" t="s">
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="50"/>
-      <c r="BO1" s="45" t="s">
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
+      <c r="BJ1" s="41"/>
+      <c r="BK1" s="41"/>
+      <c r="BL1" s="41"/>
+      <c r="BM1" s="41"/>
+      <c r="BN1" s="42"/>
+      <c r="BO1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="46"/>
-      <c r="BQ1" s="46"/>
-      <c r="BR1" s="46"/>
-      <c r="BS1" s="47"/>
-      <c r="BT1" s="54" t="s">
+      <c r="BP1" s="38"/>
+      <c r="BQ1" s="38"/>
+      <c r="BR1" s="38"/>
+      <c r="BS1" s="39"/>
+      <c r="BT1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="BU1" s="46"/>
-      <c r="BV1" s="46"/>
-      <c r="BW1" s="46"/>
-      <c r="BX1" s="46"/>
-      <c r="BY1" s="46"/>
-      <c r="BZ1" s="46"/>
-      <c r="CA1" s="46"/>
-      <c r="CB1" s="55"/>
+      <c r="BU1" s="38"/>
+      <c r="BV1" s="38"/>
+      <c r="BW1" s="38"/>
+      <c r="BX1" s="38"/>
+      <c r="BY1" s="38"/>
+      <c r="BZ1" s="38"/>
+      <c r="CA1" s="38"/>
+      <c r="CB1" s="62"/>
       <c r="CC1" s="1"/>
       <c r="CD1" s="1"/>
     </row>
     <row r="2" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="58" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="48" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="48" t="s">
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="60" t="s">
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="49"/>
-      <c r="BK2" s="49"/>
-      <c r="BL2" s="49"/>
-      <c r="BM2" s="49"/>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="48" t="s">
+      <c r="BG2" s="41"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="41"/>
+      <c r="BJ2" s="41"/>
+      <c r="BK2" s="41"/>
+      <c r="BL2" s="41"/>
+      <c r="BM2" s="41"/>
+      <c r="BN2" s="42"/>
+      <c r="BO2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="BP2" s="49"/>
-      <c r="BQ2" s="49"/>
-      <c r="BR2" s="49"/>
-      <c r="BS2" s="50"/>
-      <c r="BT2" s="54" t="s">
+      <c r="BP2" s="41"/>
+      <c r="BQ2" s="41"/>
+      <c r="BR2" s="41"/>
+      <c r="BS2" s="42"/>
+      <c r="BT2" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="BU2" s="46"/>
-      <c r="BV2" s="46"/>
-      <c r="BW2" s="46"/>
-      <c r="BX2" s="46"/>
-      <c r="BY2" s="46"/>
-      <c r="BZ2" s="46"/>
-      <c r="CA2" s="46"/>
-      <c r="CB2" s="55"/>
+      <c r="BU2" s="38"/>
+      <c r="BV2" s="38"/>
+      <c r="BW2" s="38"/>
+      <c r="BX2" s="38"/>
+      <c r="BY2" s="38"/>
+      <c r="BZ2" s="38"/>
+      <c r="CA2" s="38"/>
+      <c r="CB2" s="62"/>
       <c r="CC2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2233,7 +2277,7 @@
       <c r="CC3" s="8"/>
       <c r="CD3" s="8"/>
     </row>
-    <row r="4" spans="1:82" ht="14.25">
+    <row r="4" spans="1:82">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
         <v>27</v>
@@ -2362,56 +2406,56 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
-      <c r="AQ5" s="43" t="s">
+      <c r="AQ5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="37" t="s">
+      <c r="AR5" s="51"/>
+      <c r="AS5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="37" t="s">
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="39"/>
-      <c r="BE5" s="37" t="s">
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
-      <c r="BJ5" s="38"/>
-      <c r="BK5" s="38"/>
-      <c r="BL5" s="38"/>
-      <c r="BM5" s="38"/>
-      <c r="BN5" s="38"/>
-      <c r="BO5" s="38"/>
-      <c r="BP5" s="38"/>
-      <c r="BQ5" s="38"/>
-      <c r="BR5" s="38"/>
-      <c r="BS5" s="38"/>
-      <c r="BT5" s="38"/>
-      <c r="BU5" s="38"/>
-      <c r="BV5" s="38"/>
-      <c r="BW5" s="38"/>
-      <c r="BX5" s="38"/>
-      <c r="BY5" s="38"/>
-      <c r="BZ5" s="38"/>
-      <c r="CA5" s="52"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
+      <c r="BQ5" s="50"/>
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50"/>
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="50"/>
+      <c r="BV5" s="50"/>
+      <c r="BW5" s="50"/>
+      <c r="BX5" s="50"/>
+      <c r="BY5" s="50"/>
+      <c r="BZ5" s="50"/>
+      <c r="CA5" s="59"/>
       <c r="CB5" s="13"/>
       <c r="CC5" s="8"/>
       <c r="CD5" s="8"/>
     </row>
-    <row r="6" spans="1:82" ht="14.25">
+    <row r="6" spans="1:82">
       <c r="A6" s="10"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2454,43 +2498,43 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="42"/>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="41"/>
-      <c r="AU6" s="41"/>
-      <c r="AV6" s="41"/>
-      <c r="AW6" s="41"/>
-      <c r="AX6" s="41"/>
-      <c r="AY6" s="42"/>
-      <c r="AZ6" s="40"/>
-      <c r="BA6" s="41"/>
-      <c r="BB6" s="41"/>
-      <c r="BC6" s="41"/>
-      <c r="BD6" s="42"/>
-      <c r="BE6" s="40"/>
-      <c r="BF6" s="41"/>
-      <c r="BG6" s="41"/>
-      <c r="BH6" s="41"/>
-      <c r="BI6" s="41"/>
-      <c r="BJ6" s="41"/>
-      <c r="BK6" s="41"/>
-      <c r="BL6" s="41"/>
-      <c r="BM6" s="41"/>
-      <c r="BN6" s="41"/>
-      <c r="BO6" s="41"/>
-      <c r="BP6" s="41"/>
-      <c r="BQ6" s="41"/>
-      <c r="BR6" s="41"/>
-      <c r="BS6" s="41"/>
-      <c r="BT6" s="41"/>
-      <c r="BU6" s="41"/>
-      <c r="BV6" s="41"/>
-      <c r="BW6" s="41"/>
-      <c r="BX6" s="41"/>
-      <c r="BY6" s="41"/>
-      <c r="BZ6" s="41"/>
-      <c r="CA6" s="53"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="54"/>
+      <c r="AZ6" s="52"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="54"/>
+      <c r="BE6" s="52"/>
+      <c r="BF6" s="53"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="53"/>
+      <c r="BI6" s="53"/>
+      <c r="BJ6" s="53"/>
+      <c r="BK6" s="53"/>
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="53"/>
+      <c r="BN6" s="53"/>
+      <c r="BO6" s="53"/>
+      <c r="BP6" s="53"/>
+      <c r="BQ6" s="53"/>
+      <c r="BR6" s="53"/>
+      <c r="BS6" s="53"/>
+      <c r="BT6" s="53"/>
+      <c r="BU6" s="53"/>
+      <c r="BV6" s="53"/>
+      <c r="BW6" s="53"/>
+      <c r="BX6" s="53"/>
+      <c r="BY6" s="53"/>
+      <c r="BZ6" s="53"/>
+      <c r="CA6" s="60"/>
       <c r="CB6" s="13"/>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
@@ -2537,10 +2581,10 @@
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
-      <c r="AQ7" s="35" t="s">
+      <c r="AQ7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AR7" s="36"/>
+      <c r="AR7" s="48"/>
       <c r="AS7" s="34" t="s">
         <v>16</v>
       </c>
@@ -2796,10 +2840,10 @@
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
-      <c r="AQ10" s="35" t="s">
+      <c r="AQ10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AR10" s="36"/>
+      <c r="AR10" s="48"/>
       <c r="AS10" s="4" t="s">
         <v>19</v>
       </c>
@@ -3054,10 +3098,10 @@
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
-      <c r="AQ13" s="35" t="s">
+      <c r="AQ13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AR13" s="36"/>
+      <c r="AR13" s="48"/>
       <c r="AS13" s="17" t="s">
         <v>21</v>
       </c>
@@ -3146,8 +3190,8 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
-      <c r="AQ14" s="35"/>
-      <c r="AR14" s="36"/>
+      <c r="AQ14" s="47"/>
+      <c r="AR14" s="48"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
       <c r="AU14" s="8"/>
@@ -3315,11 +3359,11 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
-      <c r="AQ16" s="75" t="s">
+      <c r="AQ16" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="AR16" s="36"/>
-      <c r="AS16" s="76" t="s">
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="35" t="s">
         <v>29</v>
       </c>
       <c r="AT16" s="4"/>
@@ -3328,14 +3372,14 @@
       <c r="AW16" s="4"/>
       <c r="AX16" s="4"/>
       <c r="AY16" s="14"/>
-      <c r="AZ16" s="76" t="s">
+      <c r="AZ16" s="35" t="s">
         <v>30</v>
       </c>
       <c r="BA16" s="4"/>
       <c r="BB16" s="4"/>
       <c r="BC16" s="4"/>
       <c r="BD16" s="14"/>
-      <c r="BE16" s="76" t="s">
+      <c r="BE16" s="35" t="s">
         <v>32</v>
       </c>
       <c r="BF16" s="8"/>
@@ -3428,7 +3472,7 @@
       <c r="BI17" s="8"/>
       <c r="BJ17" s="4"/>
       <c r="BK17" s="4"/>
-      <c r="BL17" s="77" t="s">
+      <c r="BL17" s="36" t="s">
         <v>33</v>
       </c>
       <c r="BM17" s="4"/>
@@ -3493,8 +3537,8 @@
       <c r="AN18" s="8"/>
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
-      <c r="AQ18" s="35"/>
-      <c r="AR18" s="36"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="48"/>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
       <c r="AU18" s="4"/>
@@ -3661,8 +3705,8 @@
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
-      <c r="AQ20" s="35"/>
-      <c r="AR20" s="36"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="48"/>
       <c r="AS20" s="4"/>
       <c r="AT20" s="4"/>
       <c r="AU20" s="4"/>
@@ -3828,8 +3872,8 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
-      <c r="AQ22" s="35"/>
-      <c r="AR22" s="36"/>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="48"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
@@ -3912,8 +3956,8 @@
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
       <c r="AP23" s="8"/>
-      <c r="AQ23" s="35"/>
-      <c r="AR23" s="36"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="48"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="4"/>
       <c r="AU23" s="4"/>
@@ -3996,8 +4040,8 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
       <c r="AP24" s="8"/>
-      <c r="AQ24" s="35"/>
-      <c r="AR24" s="36"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="48"/>
       <c r="AZ24" s="12"/>
       <c r="BE24" s="12"/>
       <c r="BJ24" s="4"/>
@@ -4065,8 +4109,8 @@
       <c r="AN25" s="8"/>
       <c r="AO25" s="8"/>
       <c r="AP25" s="8"/>
-      <c r="AQ25" s="35"/>
-      <c r="AR25" s="36"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="48"/>
       <c r="AZ25" s="12"/>
       <c r="BE25" s="12"/>
       <c r="BJ25" s="4"/>
@@ -4134,8 +4178,8 @@
       <c r="AN26" s="8"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="8"/>
-      <c r="AQ26" s="35"/>
-      <c r="AR26" s="36"/>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="48"/>
       <c r="AZ26" s="12"/>
       <c r="BE26" s="12"/>
       <c r="BJ26" s="4"/>
@@ -4203,8 +4247,8 @@
       <c r="AN27" s="8"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="8"/>
-      <c r="AQ27" s="35"/>
-      <c r="AR27" s="36"/>
+      <c r="AQ27" s="47"/>
+      <c r="AR27" s="48"/>
       <c r="AZ27" s="12"/>
       <c r="BE27" s="12"/>
       <c r="BJ27" s="8"/>
@@ -4272,8 +4316,8 @@
       <c r="AN28" s="8"/>
       <c r="AO28" s="8"/>
       <c r="AP28" s="8"/>
-      <c r="AQ28" s="35"/>
-      <c r="AR28" s="36"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="48"/>
       <c r="AZ28" s="12"/>
       <c r="BE28" s="12"/>
       <c r="BJ28" s="8"/>
@@ -4341,8 +4385,8 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
       <c r="AP29" s="8"/>
-      <c r="AQ29" s="35"/>
-      <c r="AR29" s="36"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="48"/>
       <c r="AZ29" s="12"/>
       <c r="BE29" s="12"/>
       <c r="BJ29" s="8"/>
@@ -4410,8 +4454,8 @@
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
-      <c r="AQ30" s="35"/>
-      <c r="AR30" s="36"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="48"/>
       <c r="AZ30" s="12"/>
       <c r="BE30" s="12"/>
       <c r="BJ30" s="8"/>
@@ -4479,8 +4523,8 @@
       <c r="AN31" s="8"/>
       <c r="AO31" s="8"/>
       <c r="AP31" s="8"/>
-      <c r="AQ31" s="35"/>
-      <c r="AR31" s="36"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="48"/>
       <c r="AZ31" s="12"/>
       <c r="BE31" s="12"/>
       <c r="BJ31" s="8"/>
@@ -4548,8 +4592,8 @@
       <c r="AN32" s="8"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="8"/>
-      <c r="AQ32" s="35"/>
-      <c r="AR32" s="36"/>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="48"/>
       <c r="AZ32" s="12"/>
       <c r="BE32" s="12"/>
       <c r="BJ32" s="8"/>
@@ -4617,8 +4661,8 @@
       <c r="AN33" s="8"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
-      <c r="AQ33" s="35"/>
-      <c r="AR33" s="36"/>
+      <c r="AQ33" s="47"/>
+      <c r="AR33" s="48"/>
       <c r="AZ33" s="12"/>
       <c r="BE33" s="12"/>
       <c r="BJ33" s="8"/>
@@ -4686,8 +4730,8 @@
       <c r="AN34" s="8"/>
       <c r="AO34" s="8"/>
       <c r="AP34" s="8"/>
-      <c r="AQ34" s="35"/>
-      <c r="AR34" s="36"/>
+      <c r="AQ34" s="47"/>
+      <c r="AR34" s="48"/>
       <c r="AZ34" s="12"/>
       <c r="BE34" s="12"/>
       <c r="BJ34" s="8"/>
@@ -4839,8 +4883,8 @@
       <c r="AN36" s="8"/>
       <c r="AO36" s="8"/>
       <c r="AP36" s="8"/>
-      <c r="AQ36" s="35"/>
-      <c r="AR36" s="36"/>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="48"/>
       <c r="AS36" s="4"/>
       <c r="AT36" s="4"/>
       <c r="AU36" s="4"/>
@@ -5972,7 +6016,7 @@
       <c r="CC49" s="8"/>
       <c r="CD49" s="8"/>
     </row>
-    <row r="50" spans="1:82" ht="14.25">
+    <row r="50" spans="1:82">
       <c r="A50" s="10"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -6056,7 +6100,7 @@
       <c r="CC50" s="8"/>
       <c r="CD50" s="8"/>
     </row>
-    <row r="51" spans="1:82" ht="14.25">
+    <row r="51" spans="1:82">
       <c r="A51" s="32"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -6140,7 +6184,7 @@
       <c r="CC51" s="8"/>
       <c r="CD51" s="8"/>
     </row>
-    <row r="52" spans="1:82" ht="14.25">
+    <row r="52" spans="1:82">
       <c r="A52" s="10"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -6224,7 +6268,7 @@
       <c r="CC52" s="8"/>
       <c r="CD52" s="8"/>
     </row>
-    <row r="53" spans="1:82" ht="13.5">
+    <row r="53" spans="1:82" ht="14">
       <c r="A53" s="33"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -6308,13 +6352,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="F1:AZ1"/>
-    <mergeCell ref="BF2:BN2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="BF1:BN1"/>
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="AS5:AY6"/>
+    <mergeCell ref="AQ5:AR6"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="AZ5:BD6"/>
+    <mergeCell ref="AE2:AZ2"/>
+    <mergeCell ref="BE5:CA6"/>
+    <mergeCell ref="BT1:CB1"/>
+    <mergeCell ref="BT2:CB2"/>
+    <mergeCell ref="BO1:BS1"/>
+    <mergeCell ref="BO2:BS2"/>
     <mergeCell ref="AQ36:AR36"/>
     <mergeCell ref="AQ34:AR34"/>
     <mergeCell ref="AQ31:AR31"/>
@@ -6331,27 +6384,19 @@
     <mergeCell ref="AQ26:AR26"/>
     <mergeCell ref="AQ28:AR28"/>
     <mergeCell ref="AQ27:AR27"/>
-    <mergeCell ref="AS5:AY6"/>
-    <mergeCell ref="AQ5:AR6"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BA2:BE2"/>
-    <mergeCell ref="AZ5:BD6"/>
-    <mergeCell ref="AE2:AZ2"/>
-    <mergeCell ref="BE5:CA6"/>
-    <mergeCell ref="BT1:CB1"/>
-    <mergeCell ref="BT2:CB2"/>
-    <mergeCell ref="BO1:BS1"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AQ16:AR16"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="F1:AZ1"/>
+    <mergeCell ref="BF2:BN2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="BF1:BN1"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6364,174 +6409,174 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="73" width="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="67" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="46"/>
-      <c r="BH1" s="46"/>
-      <c r="BI1" s="46"/>
-      <c r="BJ1" s="47"/>
-      <c r="BK1" s="67" t="s">
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="75"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
+      <c r="BI1" s="38"/>
+      <c r="BJ1" s="39"/>
+      <c r="BK1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="46"/>
-      <c r="BM1" s="46"/>
-      <c r="BN1" s="46"/>
-      <c r="BO1" s="47"/>
-      <c r="BP1" s="62"/>
-      <c r="BQ1" s="46"/>
-      <c r="BR1" s="46"/>
-      <c r="BS1" s="46"/>
-      <c r="BT1" s="46"/>
-      <c r="BU1" s="46"/>
+      <c r="BL1" s="38"/>
+      <c r="BM1" s="38"/>
+      <c r="BN1" s="38"/>
+      <c r="BO1" s="39"/>
+      <c r="BP1" s="69"/>
+      <c r="BQ1" s="38"/>
+      <c r="BR1" s="38"/>
+      <c r="BS1" s="38"/>
+      <c r="BT1" s="38"/>
+      <c r="BU1" s="38"/>
     </row>
     <row r="2" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="69" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="50"/>
-      <c r="BK2" s="69" t="s">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="76"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="41"/>
+      <c r="BF2" s="41"/>
+      <c r="BG2" s="41"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="41"/>
+      <c r="BJ2" s="42"/>
+      <c r="BK2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="BL2" s="49"/>
-      <c r="BM2" s="49"/>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="50"/>
-      <c r="BP2" s="61"/>
-      <c r="BQ2" s="49"/>
-      <c r="BR2" s="49"/>
-      <c r="BS2" s="49"/>
-      <c r="BT2" s="49"/>
-      <c r="BU2" s="49"/>
+      <c r="BL2" s="41"/>
+      <c r="BM2" s="41"/>
+      <c r="BN2" s="41"/>
+      <c r="BO2" s="42"/>
+      <c r="BP2" s="68"/>
+      <c r="BQ2" s="41"/>
+      <c r="BR2" s="41"/>
+      <c r="BS2" s="41"/>
+      <c r="BT2" s="41"/>
+      <c r="BU2" s="41"/>
     </row>
     <row r="3" spans="1:73" ht="14.25" customHeight="1">
       <c r="A3" s="2"/>
@@ -6608,7 +6653,7 @@
       <c r="BT3" s="3"/>
       <c r="BU3" s="3"/>
     </row>
-    <row r="4" spans="1:73" ht="14.25">
+    <row r="4" spans="1:73">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6722,51 +6767,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="63" t="s">
+      <c r="AM5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="64" t="s">
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="64" t="s">
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="64" t="s">
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
-      <c r="BJ5" s="38"/>
-      <c r="BK5" s="38"/>
-      <c r="BL5" s="38"/>
-      <c r="BM5" s="38"/>
-      <c r="BN5" s="38"/>
-      <c r="BO5" s="38"/>
-      <c r="BP5" s="38"/>
-      <c r="BQ5" s="38"/>
-      <c r="BR5" s="38"/>
-      <c r="BS5" s="38"/>
-      <c r="BT5" s="38"/>
-      <c r="BU5" s="38"/>
-    </row>
-    <row r="6" spans="1:73" ht="14.25">
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
+      <c r="BQ5" s="50"/>
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50"/>
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="50"/>
+    </row>
+    <row r="6" spans="1:73">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6805,41 +6850,41 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="42"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="41"/>
-      <c r="AU6" s="42"/>
-      <c r="AV6" s="40"/>
-      <c r="AW6" s="41"/>
-      <c r="AX6" s="41"/>
-      <c r="AY6" s="41"/>
-      <c r="AZ6" s="42"/>
-      <c r="BA6" s="65"/>
-      <c r="BB6" s="66"/>
-      <c r="BC6" s="66"/>
-      <c r="BD6" s="66"/>
-      <c r="BE6" s="66"/>
-      <c r="BF6" s="66"/>
-      <c r="BG6" s="66"/>
-      <c r="BH6" s="66"/>
-      <c r="BI6" s="66"/>
-      <c r="BJ6" s="66"/>
-      <c r="BK6" s="66"/>
-      <c r="BL6" s="66"/>
-      <c r="BM6" s="66"/>
-      <c r="BN6" s="66"/>
-      <c r="BO6" s="66"/>
-      <c r="BP6" s="66"/>
-      <c r="BQ6" s="66"/>
-      <c r="BR6" s="66"/>
-      <c r="BS6" s="66"/>
-      <c r="BT6" s="66"/>
-      <c r="BU6" s="66"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="52"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="52"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="54"/>
+      <c r="BA6" s="72"/>
+      <c r="BB6" s="73"/>
+      <c r="BC6" s="73"/>
+      <c r="BD6" s="73"/>
+      <c r="BE6" s="73"/>
+      <c r="BF6" s="73"/>
+      <c r="BG6" s="73"/>
+      <c r="BH6" s="73"/>
+      <c r="BI6" s="73"/>
+      <c r="BJ6" s="73"/>
+      <c r="BK6" s="73"/>
+      <c r="BL6" s="73"/>
+      <c r="BM6" s="73"/>
+      <c r="BN6" s="73"/>
+      <c r="BO6" s="73"/>
+      <c r="BP6" s="73"/>
+      <c r="BQ6" s="73"/>
+      <c r="BR6" s="73"/>
+      <c r="BS6" s="73"/>
+      <c r="BT6" s="73"/>
+      <c r="BU6" s="73"/>
     </row>
     <row r="7" spans="1:73" ht="14.25" customHeight="1">
       <c r="A7" s="5"/>
@@ -9316,7 +9361,7 @@
       <c r="BT39" s="4"/>
       <c r="BU39" s="4"/>
     </row>
-    <row r="40" spans="1:73" ht="14.25">
+    <row r="40" spans="1:73">
       <c r="A40" s="5"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -10141,7 +10186,7 @@
       <c r="BT50" s="4"/>
       <c r="BU50" s="4"/>
     </row>
-    <row r="51" spans="1:73" ht="14.25">
+    <row r="51" spans="1:73">
       <c r="A51" s="24"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -10293,11 +10338,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="BP2:BU2"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="AM5:AN6"/>
@@ -10311,6 +10351,11 @@
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(購入履歴).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(購入履歴).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seiya/DesignDocs/設計書/01.基本設計/02.画面設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965B8B6C-59B9-104A-9BAF-4024204BC51B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFEC16F-4DCC-4763-9338-75CF35DB0D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム" sheetId="1" r:id="rId1"/>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>2019/11/07</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="8"/>
   </si>
@@ -298,12 +294,16 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>2019/11/08</t>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -313,39 +313,39 @@
       <b/>
       <sz val="14"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="6"/>
@@ -363,11 +363,6 @@
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic UI"/>
     </font>
   </fonts>
   <fills count="3">
@@ -739,32 +734,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,6 +756,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -789,20 +772,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -824,11 +807,23 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1987,209 +1982,209 @@
   </sheetPr>
   <dimension ref="A1:CD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CC8" sqref="CC8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="BE5" sqref="BE5:CA6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="80" width="2" customWidth="1"/>
-    <col min="81" max="82" width="6.83203125" customWidth="1"/>
+    <col min="81" max="82" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="44" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="39"/>
-      <c r="BA1" s="57" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="45" t="s">
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="BG1" s="41"/>
-      <c r="BH1" s="41"/>
-      <c r="BI1" s="41"/>
-      <c r="BJ1" s="41"/>
-      <c r="BK1" s="41"/>
-      <c r="BL1" s="41"/>
-      <c r="BM1" s="41"/>
-      <c r="BN1" s="42"/>
-      <c r="BO1" s="57" t="s">
+      <c r="BG1" s="52"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="52"/>
+      <c r="BL1" s="52"/>
+      <c r="BM1" s="52"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="38"/>
-      <c r="BQ1" s="38"/>
-      <c r="BR1" s="38"/>
-      <c r="BS1" s="39"/>
-      <c r="BT1" s="61" t="s">
+      <c r="BP1" s="49"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="50"/>
+      <c r="BT1" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BU1" s="38"/>
-      <c r="BV1" s="38"/>
-      <c r="BW1" s="38"/>
-      <c r="BX1" s="38"/>
-      <c r="BY1" s="38"/>
-      <c r="BZ1" s="38"/>
-      <c r="CA1" s="38"/>
-      <c r="CB1" s="62"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="49"/>
+      <c r="BX1" s="49"/>
+      <c r="BY1" s="49"/>
+      <c r="BZ1" s="49"/>
+      <c r="CA1" s="49"/>
+      <c r="CB1" s="58"/>
       <c r="CC1" s="1"/>
       <c r="CD1" s="1"/>
     </row>
     <row r="2" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="46" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="46" t="s">
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="41"/>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="45" t="s">
-        <v>34</v>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="63" t="s">
+        <v>36</v>
       </c>
-      <c r="BG2" s="41"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="41"/>
-      <c r="BJ2" s="41"/>
-      <c r="BK2" s="41"/>
-      <c r="BL2" s="41"/>
-      <c r="BM2" s="41"/>
-      <c r="BN2" s="42"/>
-      <c r="BO2" s="46" t="s">
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="52"/>
+      <c r="BK2" s="52"/>
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="53"/>
+      <c r="BO2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="BP2" s="41"/>
-      <c r="BQ2" s="41"/>
-      <c r="BR2" s="41"/>
-      <c r="BS2" s="42"/>
-      <c r="BT2" s="61" t="s">
-        <v>36</v>
+      <c r="BP2" s="52"/>
+      <c r="BQ2" s="52"/>
+      <c r="BR2" s="52"/>
+      <c r="BS2" s="53"/>
+      <c r="BT2" s="57" t="s">
+        <v>35</v>
       </c>
-      <c r="BU2" s="38"/>
-      <c r="BV2" s="38"/>
-      <c r="BW2" s="38"/>
-      <c r="BX2" s="38"/>
-      <c r="BY2" s="38"/>
-      <c r="BZ2" s="38"/>
-      <c r="CA2" s="38"/>
-      <c r="CB2" s="62"/>
+      <c r="BU2" s="49"/>
+      <c r="BV2" s="49"/>
+      <c r="BW2" s="49"/>
+      <c r="BX2" s="49"/>
+      <c r="BY2" s="49"/>
+      <c r="BZ2" s="49"/>
+      <c r="CA2" s="49"/>
+      <c r="CB2" s="58"/>
       <c r="CC2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CD2" s="1"/>
     </row>
@@ -2277,7 +2272,7 @@
       <c r="CC3" s="8"/>
       <c r="CD3" s="8"/>
     </row>
-    <row r="4" spans="1:82">
+    <row r="4" spans="1:82" ht="14.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
         <v>27</v>
@@ -2406,56 +2401,56 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
-      <c r="AQ5" s="55" t="s">
+      <c r="AQ5" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="49" t="s">
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="50"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="51"/>
-      <c r="AZ5" s="49" t="s">
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="BA5" s="50"/>
-      <c r="BB5" s="50"/>
-      <c r="BC5" s="50"/>
-      <c r="BD5" s="51"/>
-      <c r="BE5" s="49" t="s">
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="BF5" s="50"/>
-      <c r="BG5" s="50"/>
-      <c r="BH5" s="50"/>
-      <c r="BI5" s="50"/>
-      <c r="BJ5" s="50"/>
-      <c r="BK5" s="50"/>
-      <c r="BL5" s="50"/>
-      <c r="BM5" s="50"/>
-      <c r="BN5" s="50"/>
-      <c r="BO5" s="50"/>
-      <c r="BP5" s="50"/>
-      <c r="BQ5" s="50"/>
-      <c r="BR5" s="50"/>
-      <c r="BS5" s="50"/>
-      <c r="BT5" s="50"/>
-      <c r="BU5" s="50"/>
-      <c r="BV5" s="50"/>
-      <c r="BW5" s="50"/>
-      <c r="BX5" s="50"/>
-      <c r="BY5" s="50"/>
-      <c r="BZ5" s="50"/>
-      <c r="CA5" s="59"/>
+      <c r="BF5" s="41"/>
+      <c r="BG5" s="41"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="41"/>
+      <c r="BJ5" s="41"/>
+      <c r="BK5" s="41"/>
+      <c r="BL5" s="41"/>
+      <c r="BM5" s="41"/>
+      <c r="BN5" s="41"/>
+      <c r="BO5" s="41"/>
+      <c r="BP5" s="41"/>
+      <c r="BQ5" s="41"/>
+      <c r="BR5" s="41"/>
+      <c r="BS5" s="41"/>
+      <c r="BT5" s="41"/>
+      <c r="BU5" s="41"/>
+      <c r="BV5" s="41"/>
+      <c r="BW5" s="41"/>
+      <c r="BX5" s="41"/>
+      <c r="BY5" s="41"/>
+      <c r="BZ5" s="41"/>
+      <c r="CA5" s="55"/>
       <c r="CB5" s="13"/>
       <c r="CC5" s="8"/>
       <c r="CD5" s="8"/>
     </row>
-    <row r="6" spans="1:82">
+    <row r="6" spans="1:82" ht="14.25">
       <c r="A6" s="10"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2498,43 +2493,43 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="54"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="54"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="54"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="53"/>
-      <c r="BP6" s="53"/>
-      <c r="BQ6" s="53"/>
-      <c r="BR6" s="53"/>
-      <c r="BS6" s="53"/>
-      <c r="BT6" s="53"/>
-      <c r="BU6" s="53"/>
-      <c r="BV6" s="53"/>
-      <c r="BW6" s="53"/>
-      <c r="BX6" s="53"/>
-      <c r="BY6" s="53"/>
-      <c r="BZ6" s="53"/>
-      <c r="CA6" s="60"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="44"/>
+      <c r="AY6" s="45"/>
+      <c r="AZ6" s="43"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="44"/>
+      <c r="BC6" s="44"/>
+      <c r="BD6" s="45"/>
+      <c r="BE6" s="43"/>
+      <c r="BF6" s="44"/>
+      <c r="BG6" s="44"/>
+      <c r="BH6" s="44"/>
+      <c r="BI6" s="44"/>
+      <c r="BJ6" s="44"/>
+      <c r="BK6" s="44"/>
+      <c r="BL6" s="44"/>
+      <c r="BM6" s="44"/>
+      <c r="BN6" s="44"/>
+      <c r="BO6" s="44"/>
+      <c r="BP6" s="44"/>
+      <c r="BQ6" s="44"/>
+      <c r="BR6" s="44"/>
+      <c r="BS6" s="44"/>
+      <c r="BT6" s="44"/>
+      <c r="BU6" s="44"/>
+      <c r="BV6" s="44"/>
+      <c r="BW6" s="44"/>
+      <c r="BX6" s="44"/>
+      <c r="BY6" s="44"/>
+      <c r="BZ6" s="44"/>
+      <c r="CA6" s="56"/>
       <c r="CB6" s="13"/>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
@@ -2581,10 +2576,10 @@
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
-      <c r="AQ7" s="47" t="s">
+      <c r="AQ7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AR7" s="48"/>
+      <c r="AR7" s="38"/>
       <c r="AS7" s="34" t="s">
         <v>16</v>
       </c>
@@ -2840,10 +2835,10 @@
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
-      <c r="AQ10" s="47" t="s">
+      <c r="AQ10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AR10" s="48"/>
+      <c r="AR10" s="38"/>
       <c r="AS10" s="4" t="s">
         <v>19</v>
       </c>
@@ -3098,10 +3093,10 @@
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
-      <c r="AQ13" s="47" t="s">
+      <c r="AQ13" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AR13" s="48"/>
+      <c r="AR13" s="38"/>
       <c r="AS13" s="17" t="s">
         <v>21</v>
       </c>
@@ -3190,8 +3185,8 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
-      <c r="AQ14" s="47"/>
-      <c r="AR14" s="48"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="38"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
       <c r="AU14" s="8"/>
@@ -3359,10 +3354,10 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
-      <c r="AQ16" s="63" t="s">
+      <c r="AQ16" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AR16" s="48"/>
+      <c r="AR16" s="38"/>
       <c r="AS16" s="35" t="s">
         <v>29</v>
       </c>
@@ -3537,8 +3532,8 @@
       <c r="AN18" s="8"/>
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
-      <c r="AQ18" s="47"/>
-      <c r="AR18" s="48"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="38"/>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
       <c r="AU18" s="4"/>
@@ -3705,8 +3700,8 @@
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
-      <c r="AQ20" s="47"/>
-      <c r="AR20" s="48"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="38"/>
       <c r="AS20" s="4"/>
       <c r="AT20" s="4"/>
       <c r="AU20" s="4"/>
@@ -3872,8 +3867,8 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
-      <c r="AQ22" s="47"/>
-      <c r="AR22" s="48"/>
+      <c r="AQ22" s="37"/>
+      <c r="AR22" s="38"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
@@ -3956,8 +3951,8 @@
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
       <c r="AP23" s="8"/>
-      <c r="AQ23" s="47"/>
-      <c r="AR23" s="48"/>
+      <c r="AQ23" s="37"/>
+      <c r="AR23" s="38"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="4"/>
       <c r="AU23" s="4"/>
@@ -4040,8 +4035,8 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
       <c r="AP24" s="8"/>
-      <c r="AQ24" s="47"/>
-      <c r="AR24" s="48"/>
+      <c r="AQ24" s="37"/>
+      <c r="AR24" s="38"/>
       <c r="AZ24" s="12"/>
       <c r="BE24" s="12"/>
       <c r="BJ24" s="4"/>
@@ -4109,8 +4104,8 @@
       <c r="AN25" s="8"/>
       <c r="AO25" s="8"/>
       <c r="AP25" s="8"/>
-      <c r="AQ25" s="47"/>
-      <c r="AR25" s="48"/>
+      <c r="AQ25" s="37"/>
+      <c r="AR25" s="38"/>
       <c r="AZ25" s="12"/>
       <c r="BE25" s="12"/>
       <c r="BJ25" s="4"/>
@@ -4178,8 +4173,8 @@
       <c r="AN26" s="8"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="8"/>
-      <c r="AQ26" s="47"/>
-      <c r="AR26" s="48"/>
+      <c r="AQ26" s="37"/>
+      <c r="AR26" s="38"/>
       <c r="AZ26" s="12"/>
       <c r="BE26" s="12"/>
       <c r="BJ26" s="4"/>
@@ -4247,8 +4242,8 @@
       <c r="AN27" s="8"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="8"/>
-      <c r="AQ27" s="47"/>
-      <c r="AR27" s="48"/>
+      <c r="AQ27" s="37"/>
+      <c r="AR27" s="38"/>
       <c r="AZ27" s="12"/>
       <c r="BE27" s="12"/>
       <c r="BJ27" s="8"/>
@@ -4316,8 +4311,8 @@
       <c r="AN28" s="8"/>
       <c r="AO28" s="8"/>
       <c r="AP28" s="8"/>
-      <c r="AQ28" s="47"/>
-      <c r="AR28" s="48"/>
+      <c r="AQ28" s="37"/>
+      <c r="AR28" s="38"/>
       <c r="AZ28" s="12"/>
       <c r="BE28" s="12"/>
       <c r="BJ28" s="8"/>
@@ -4385,8 +4380,8 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
       <c r="AP29" s="8"/>
-      <c r="AQ29" s="47"/>
-      <c r="AR29" s="48"/>
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="38"/>
       <c r="AZ29" s="12"/>
       <c r="BE29" s="12"/>
       <c r="BJ29" s="8"/>
@@ -4454,8 +4449,8 @@
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="48"/>
+      <c r="AQ30" s="37"/>
+      <c r="AR30" s="38"/>
       <c r="AZ30" s="12"/>
       <c r="BE30" s="12"/>
       <c r="BJ30" s="8"/>
@@ -4523,8 +4518,8 @@
       <c r="AN31" s="8"/>
       <c r="AO31" s="8"/>
       <c r="AP31" s="8"/>
-      <c r="AQ31" s="47"/>
-      <c r="AR31" s="48"/>
+      <c r="AQ31" s="37"/>
+      <c r="AR31" s="38"/>
       <c r="AZ31" s="12"/>
       <c r="BE31" s="12"/>
       <c r="BJ31" s="8"/>
@@ -4592,8 +4587,8 @@
       <c r="AN32" s="8"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="8"/>
-      <c r="AQ32" s="47"/>
-      <c r="AR32" s="48"/>
+      <c r="AQ32" s="37"/>
+      <c r="AR32" s="38"/>
       <c r="AZ32" s="12"/>
       <c r="BE32" s="12"/>
       <c r="BJ32" s="8"/>
@@ -4661,8 +4656,8 @@
       <c r="AN33" s="8"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
-      <c r="AQ33" s="47"/>
-      <c r="AR33" s="48"/>
+      <c r="AQ33" s="37"/>
+      <c r="AR33" s="38"/>
       <c r="AZ33" s="12"/>
       <c r="BE33" s="12"/>
       <c r="BJ33" s="8"/>
@@ -4730,8 +4725,8 @@
       <c r="AN34" s="8"/>
       <c r="AO34" s="8"/>
       <c r="AP34" s="8"/>
-      <c r="AQ34" s="47"/>
-      <c r="AR34" s="48"/>
+      <c r="AQ34" s="37"/>
+      <c r="AR34" s="38"/>
       <c r="AZ34" s="12"/>
       <c r="BE34" s="12"/>
       <c r="BJ34" s="8"/>
@@ -4883,8 +4878,8 @@
       <c r="AN36" s="8"/>
       <c r="AO36" s="8"/>
       <c r="AP36" s="8"/>
-      <c r="AQ36" s="47"/>
-      <c r="AR36" s="48"/>
+      <c r="AQ36" s="37"/>
+      <c r="AR36" s="38"/>
       <c r="AS36" s="4"/>
       <c r="AT36" s="4"/>
       <c r="AU36" s="4"/>
@@ -6016,7 +6011,7 @@
       <c r="CC49" s="8"/>
       <c r="CD49" s="8"/>
     </row>
-    <row r="50" spans="1:82">
+    <row r="50" spans="1:82" ht="14.25">
       <c r="A50" s="10"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -6100,7 +6095,7 @@
       <c r="CC50" s="8"/>
       <c r="CD50" s="8"/>
     </row>
-    <row r="51" spans="1:82">
+    <row r="51" spans="1:82" ht="14.25">
       <c r="A51" s="32"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -6184,7 +6179,7 @@
       <c r="CC51" s="8"/>
       <c r="CD51" s="8"/>
     </row>
-    <row r="52" spans="1:82">
+    <row r="52" spans="1:82" ht="14.25">
       <c r="A52" s="10"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -6268,7 +6263,7 @@
       <c r="CC52" s="8"/>
       <c r="CD52" s="8"/>
     </row>
-    <row r="53" spans="1:82" ht="14">
+    <row r="53" spans="1:82" ht="13.5">
       <c r="A53" s="33"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -6352,22 +6347,13 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AQ16:AR16"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AQ20:AR20"/>
-    <mergeCell ref="AS5:AY6"/>
-    <mergeCell ref="AQ5:AR6"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BA2:BE2"/>
-    <mergeCell ref="AZ5:BD6"/>
-    <mergeCell ref="AE2:AZ2"/>
-    <mergeCell ref="BE5:CA6"/>
-    <mergeCell ref="BT1:CB1"/>
-    <mergeCell ref="BT2:CB2"/>
-    <mergeCell ref="BO1:BS1"/>
-    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="F1:AZ1"/>
+    <mergeCell ref="BF2:BN2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="BF1:BN1"/>
     <mergeCell ref="AQ36:AR36"/>
     <mergeCell ref="AQ34:AR34"/>
     <mergeCell ref="AQ31:AR31"/>
@@ -6384,13 +6370,22 @@
     <mergeCell ref="AQ26:AR26"/>
     <mergeCell ref="AQ28:AR28"/>
     <mergeCell ref="AQ27:AR27"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="F1:AZ1"/>
-    <mergeCell ref="BF2:BN2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="BF1:BN1"/>
+    <mergeCell ref="AS5:AY6"/>
+    <mergeCell ref="AQ5:AR6"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="AZ5:BD6"/>
+    <mergeCell ref="AE2:AZ2"/>
+    <mergeCell ref="BE5:CA6"/>
+    <mergeCell ref="BT1:CB1"/>
+    <mergeCell ref="BT2:CB2"/>
+    <mergeCell ref="BO1:BS1"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AQ20:AR20"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6409,174 +6404,174 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="73" width="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="74" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="39"/>
-      <c r="BB1" s="75"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
-      <c r="BJ1" s="39"/>
-      <c r="BK1" s="74" t="s">
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="50"/>
+      <c r="BK1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="38"/>
-      <c r="BM1" s="38"/>
-      <c r="BN1" s="38"/>
-      <c r="BO1" s="39"/>
-      <c r="BP1" s="69"/>
-      <c r="BQ1" s="38"/>
-      <c r="BR1" s="38"/>
-      <c r="BS1" s="38"/>
-      <c r="BT1" s="38"/>
-      <c r="BU1" s="38"/>
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49"/>
+      <c r="BO1" s="50"/>
+      <c r="BP1" s="65"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
     </row>
     <row r="2" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="67" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="67" t="s">
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="76"/>
-      <c r="BC2" s="41"/>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="41"/>
-      <c r="BF2" s="41"/>
-      <c r="BG2" s="41"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="41"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="67" t="s">
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="52"/>
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="53"/>
+      <c r="BK2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="BL2" s="41"/>
-      <c r="BM2" s="41"/>
-      <c r="BN2" s="41"/>
-      <c r="BO2" s="42"/>
-      <c r="BP2" s="68"/>
-      <c r="BQ2" s="41"/>
-      <c r="BR2" s="41"/>
-      <c r="BS2" s="41"/>
-      <c r="BT2" s="41"/>
-      <c r="BU2" s="41"/>
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="52"/>
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="52"/>
+      <c r="BR2" s="52"/>
+      <c r="BS2" s="52"/>
+      <c r="BT2" s="52"/>
+      <c r="BU2" s="52"/>
     </row>
     <row r="3" spans="1:73" ht="14.25" customHeight="1">
       <c r="A3" s="2"/>
@@ -6653,7 +6648,7 @@
       <c r="BT3" s="3"/>
       <c r="BU3" s="3"/>
     </row>
-    <row r="4" spans="1:73">
+    <row r="4" spans="1:73" ht="14.25">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6767,51 +6762,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="70" t="s">
+      <c r="AM5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="71" t="s">
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="51"/>
-      <c r="AV5" s="71" t="s">
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50"/>
-      <c r="AZ5" s="51"/>
-      <c r="BA5" s="71" t="s">
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="BB5" s="50"/>
-      <c r="BC5" s="50"/>
-      <c r="BD5" s="50"/>
-      <c r="BE5" s="50"/>
-      <c r="BF5" s="50"/>
-      <c r="BG5" s="50"/>
-      <c r="BH5" s="50"/>
-      <c r="BI5" s="50"/>
-      <c r="BJ5" s="50"/>
-      <c r="BK5" s="50"/>
-      <c r="BL5" s="50"/>
-      <c r="BM5" s="50"/>
-      <c r="BN5" s="50"/>
-      <c r="BO5" s="50"/>
-      <c r="BP5" s="50"/>
-      <c r="BQ5" s="50"/>
-      <c r="BR5" s="50"/>
-      <c r="BS5" s="50"/>
-      <c r="BT5" s="50"/>
-      <c r="BU5" s="50"/>
-    </row>
-    <row r="6" spans="1:73">
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="41"/>
+      <c r="BG5" s="41"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="41"/>
+      <c r="BJ5" s="41"/>
+      <c r="BK5" s="41"/>
+      <c r="BL5" s="41"/>
+      <c r="BM5" s="41"/>
+      <c r="BN5" s="41"/>
+      <c r="BO5" s="41"/>
+      <c r="BP5" s="41"/>
+      <c r="BQ5" s="41"/>
+      <c r="BR5" s="41"/>
+      <c r="BS5" s="41"/>
+      <c r="BT5" s="41"/>
+      <c r="BU5" s="41"/>
+    </row>
+    <row r="6" spans="1:73" ht="14.25">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6850,41 +6845,41 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="56"/>
-      <c r="AN6" s="54"/>
-      <c r="AO6" s="52"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="54"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="54"/>
-      <c r="BA6" s="72"/>
-      <c r="BB6" s="73"/>
-      <c r="BC6" s="73"/>
-      <c r="BD6" s="73"/>
-      <c r="BE6" s="73"/>
-      <c r="BF6" s="73"/>
-      <c r="BG6" s="73"/>
-      <c r="BH6" s="73"/>
-      <c r="BI6" s="73"/>
-      <c r="BJ6" s="73"/>
-      <c r="BK6" s="73"/>
-      <c r="BL6" s="73"/>
-      <c r="BM6" s="73"/>
-      <c r="BN6" s="73"/>
-      <c r="BO6" s="73"/>
-      <c r="BP6" s="73"/>
-      <c r="BQ6" s="73"/>
-      <c r="BR6" s="73"/>
-      <c r="BS6" s="73"/>
-      <c r="BT6" s="73"/>
-      <c r="BU6" s="73"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="43"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="44"/>
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="44"/>
+      <c r="AY6" s="44"/>
+      <c r="AZ6" s="45"/>
+      <c r="BA6" s="68"/>
+      <c r="BB6" s="69"/>
+      <c r="BC6" s="69"/>
+      <c r="BD6" s="69"/>
+      <c r="BE6" s="69"/>
+      <c r="BF6" s="69"/>
+      <c r="BG6" s="69"/>
+      <c r="BH6" s="69"/>
+      <c r="BI6" s="69"/>
+      <c r="BJ6" s="69"/>
+      <c r="BK6" s="69"/>
+      <c r="BL6" s="69"/>
+      <c r="BM6" s="69"/>
+      <c r="BN6" s="69"/>
+      <c r="BO6" s="69"/>
+      <c r="BP6" s="69"/>
+      <c r="BQ6" s="69"/>
+      <c r="BR6" s="69"/>
+      <c r="BS6" s="69"/>
+      <c r="BT6" s="69"/>
+      <c r="BU6" s="69"/>
     </row>
     <row r="7" spans="1:73" ht="14.25" customHeight="1">
       <c r="A7" s="5"/>
@@ -9361,7 +9356,7 @@
       <c r="BT39" s="4"/>
       <c r="BU39" s="4"/>
     </row>
-    <row r="40" spans="1:73">
+    <row r="40" spans="1:73" ht="14.25">
       <c r="A40" s="5"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -10186,7 +10181,7 @@
       <c r="BT50" s="4"/>
       <c r="BU50" s="4"/>
     </row>
-    <row r="51" spans="1:73">
+    <row r="51" spans="1:73" ht="14.25">
       <c r="A51" s="24"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -10338,6 +10333,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="BP2:BU2"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="AM5:AN6"/>
@@ -10351,11 +10351,6 @@
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(購入履歴).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(購入履歴).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFEC16F-4DCC-4763-9338-75CF35DB0D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F92D42-45D1-4D66-817E-D9CA82FF8719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,13 +734,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,13 +775,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -772,20 +784,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,23 +819,11 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1982,8 +1982,8 @@
   </sheetPr>
   <dimension ref="A1:CD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="BE5" sqref="BE5:CA6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AU27" sqref="AU27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1993,196 +1993,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="62" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="48" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="63" t="s">
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="BG1" s="52"/>
-      <c r="BH1" s="52"/>
-      <c r="BI1" s="52"/>
-      <c r="BJ1" s="52"/>
-      <c r="BK1" s="52"/>
-      <c r="BL1" s="52"/>
-      <c r="BM1" s="52"/>
-      <c r="BN1" s="53"/>
-      <c r="BO1" s="48" t="s">
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
+      <c r="BJ1" s="41"/>
+      <c r="BK1" s="41"/>
+      <c r="BL1" s="41"/>
+      <c r="BM1" s="41"/>
+      <c r="BN1" s="42"/>
+      <c r="BO1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="57" t="s">
+      <c r="BP1" s="38"/>
+      <c r="BQ1" s="38"/>
+      <c r="BR1" s="38"/>
+      <c r="BS1" s="39"/>
+      <c r="BT1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="49"/>
-      <c r="BY1" s="49"/>
-      <c r="BZ1" s="49"/>
-      <c r="CA1" s="49"/>
-      <c r="CB1" s="58"/>
+      <c r="BU1" s="38"/>
+      <c r="BV1" s="38"/>
+      <c r="BW1" s="38"/>
+      <c r="BX1" s="38"/>
+      <c r="BY1" s="38"/>
+      <c r="BZ1" s="38"/>
+      <c r="CA1" s="38"/>
+      <c r="CB1" s="62"/>
       <c r="CC1" s="1"/>
       <c r="CD1" s="1"/>
     </row>
     <row r="2" spans="1:82" ht="27.75" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="61" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="51" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="53"/>
-      <c r="BA2" s="51" t="s">
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="53"/>
-      <c r="BF2" s="63" t="s">
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="53"/>
-      <c r="BO2" s="51" t="s">
+      <c r="BG2" s="41"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="41"/>
+      <c r="BJ2" s="41"/>
+      <c r="BK2" s="41"/>
+      <c r="BL2" s="41"/>
+      <c r="BM2" s="41"/>
+      <c r="BN2" s="42"/>
+      <c r="BO2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="52"/>
-      <c r="BR2" s="52"/>
-      <c r="BS2" s="53"/>
-      <c r="BT2" s="57" t="s">
+      <c r="BP2" s="41"/>
+      <c r="BQ2" s="41"/>
+      <c r="BR2" s="41"/>
+      <c r="BS2" s="42"/>
+      <c r="BT2" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="BU2" s="49"/>
-      <c r="BV2" s="49"/>
-      <c r="BW2" s="49"/>
-      <c r="BX2" s="49"/>
-      <c r="BY2" s="49"/>
-      <c r="BZ2" s="49"/>
-      <c r="CA2" s="49"/>
-      <c r="CB2" s="58"/>
+      <c r="BU2" s="38"/>
+      <c r="BV2" s="38"/>
+      <c r="BW2" s="38"/>
+      <c r="BX2" s="38"/>
+      <c r="BY2" s="38"/>
+      <c r="BZ2" s="38"/>
+      <c r="CA2" s="38"/>
+      <c r="CB2" s="62"/>
       <c r="CC2" s="1" t="s">
         <v>34</v>
       </c>
@@ -2401,51 +2401,51 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="8"/>
-      <c r="AQ5" s="46" t="s">
+      <c r="AQ5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="40" t="s">
+      <c r="AR5" s="51"/>
+      <c r="AS5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="42"/>
-      <c r="AZ5" s="40" t="s">
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="40" t="s">
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="41"/>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41"/>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="41"/>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="41"/>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="41"/>
-      <c r="BT5" s="41"/>
-      <c r="BU5" s="41"/>
-      <c r="BV5" s="41"/>
-      <c r="BW5" s="41"/>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="41"/>
-      <c r="BZ5" s="41"/>
-      <c r="CA5" s="55"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
+      <c r="BQ5" s="50"/>
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50"/>
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="50"/>
+      <c r="BV5" s="50"/>
+      <c r="BW5" s="50"/>
+      <c r="BX5" s="50"/>
+      <c r="BY5" s="50"/>
+      <c r="BZ5" s="50"/>
+      <c r="CA5" s="59"/>
       <c r="CB5" s="13"/>
       <c r="CC5" s="8"/>
       <c r="CD5" s="8"/>
@@ -2493,43 +2493,43 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="44"/>
-      <c r="AV6" s="44"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="44"/>
-      <c r="AY6" s="45"/>
-      <c r="AZ6" s="43"/>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="44"/>
-      <c r="BC6" s="44"/>
-      <c r="BD6" s="45"/>
-      <c r="BE6" s="43"/>
-      <c r="BF6" s="44"/>
-      <c r="BG6" s="44"/>
-      <c r="BH6" s="44"/>
-      <c r="BI6" s="44"/>
-      <c r="BJ6" s="44"/>
-      <c r="BK6" s="44"/>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="44"/>
-      <c r="BN6" s="44"/>
-      <c r="BO6" s="44"/>
-      <c r="BP6" s="44"/>
-      <c r="BQ6" s="44"/>
-      <c r="BR6" s="44"/>
-      <c r="BS6" s="44"/>
-      <c r="BT6" s="44"/>
-      <c r="BU6" s="44"/>
-      <c r="BV6" s="44"/>
-      <c r="BW6" s="44"/>
-      <c r="BX6" s="44"/>
-      <c r="BY6" s="44"/>
-      <c r="BZ6" s="44"/>
-      <c r="CA6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="54"/>
+      <c r="AZ6" s="52"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="54"/>
+      <c r="BE6" s="52"/>
+      <c r="BF6" s="53"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="53"/>
+      <c r="BI6" s="53"/>
+      <c r="BJ6" s="53"/>
+      <c r="BK6" s="53"/>
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="53"/>
+      <c r="BN6" s="53"/>
+      <c r="BO6" s="53"/>
+      <c r="BP6" s="53"/>
+      <c r="BQ6" s="53"/>
+      <c r="BR6" s="53"/>
+      <c r="BS6" s="53"/>
+      <c r="BT6" s="53"/>
+      <c r="BU6" s="53"/>
+      <c r="BV6" s="53"/>
+      <c r="BW6" s="53"/>
+      <c r="BX6" s="53"/>
+      <c r="BY6" s="53"/>
+      <c r="BZ6" s="53"/>
+      <c r="CA6" s="60"/>
       <c r="CB6" s="13"/>
       <c r="CC6" s="8"/>
       <c r="CD6" s="8"/>
@@ -2576,10 +2576,10 @@
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
-      <c r="AQ7" s="37" t="s">
+      <c r="AQ7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AR7" s="38"/>
+      <c r="AR7" s="48"/>
       <c r="AS7" s="34" t="s">
         <v>16</v>
       </c>
@@ -2835,10 +2835,10 @@
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8"/>
-      <c r="AQ10" s="37" t="s">
+      <c r="AQ10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AR10" s="38"/>
+      <c r="AR10" s="48"/>
       <c r="AS10" s="4" t="s">
         <v>19</v>
       </c>
@@ -3093,10 +3093,10 @@
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
-      <c r="AQ13" s="37" t="s">
+      <c r="AQ13" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AR13" s="38"/>
+      <c r="AR13" s="48"/>
       <c r="AS13" s="17" t="s">
         <v>21</v>
       </c>
@@ -3185,8 +3185,8 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="8"/>
       <c r="AP14" s="8"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="38"/>
+      <c r="AQ14" s="47"/>
+      <c r="AR14" s="48"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="8"/>
       <c r="AU14" s="8"/>
@@ -3354,10 +3354,10 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
-      <c r="AQ16" s="39" t="s">
+      <c r="AQ16" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="AR16" s="38"/>
+      <c r="AR16" s="48"/>
       <c r="AS16" s="35" t="s">
         <v>29</v>
       </c>
@@ -3532,8 +3532,8 @@
       <c r="AN18" s="8"/>
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="38"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="48"/>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
       <c r="AU18" s="4"/>
@@ -3700,8 +3700,8 @@
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="38"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="48"/>
       <c r="AS20" s="4"/>
       <c r="AT20" s="4"/>
       <c r="AU20" s="4"/>
@@ -3867,8 +3867,8 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="38"/>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="48"/>
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
@@ -3951,8 +3951,8 @@
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
       <c r="AP23" s="8"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="38"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="48"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="4"/>
       <c r="AU23" s="4"/>
@@ -4035,8 +4035,8 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="8"/>
       <c r="AP24" s="8"/>
-      <c r="AQ24" s="37"/>
-      <c r="AR24" s="38"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="48"/>
       <c r="AZ24" s="12"/>
       <c r="BE24" s="12"/>
       <c r="BJ24" s="4"/>
@@ -4104,8 +4104,8 @@
       <c r="AN25" s="8"/>
       <c r="AO25" s="8"/>
       <c r="AP25" s="8"/>
-      <c r="AQ25" s="37"/>
-      <c r="AR25" s="38"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="48"/>
       <c r="AZ25" s="12"/>
       <c r="BE25" s="12"/>
       <c r="BJ25" s="4"/>
@@ -4173,8 +4173,8 @@
       <c r="AN26" s="8"/>
       <c r="AO26" s="8"/>
       <c r="AP26" s="8"/>
-      <c r="AQ26" s="37"/>
-      <c r="AR26" s="38"/>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="48"/>
       <c r="AZ26" s="12"/>
       <c r="BE26" s="12"/>
       <c r="BJ26" s="4"/>
@@ -4242,8 +4242,8 @@
       <c r="AN27" s="8"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="8"/>
-      <c r="AQ27" s="37"/>
-      <c r="AR27" s="38"/>
+      <c r="AQ27" s="47"/>
+      <c r="AR27" s="48"/>
       <c r="AZ27" s="12"/>
       <c r="BE27" s="12"/>
       <c r="BJ27" s="8"/>
@@ -4311,8 +4311,8 @@
       <c r="AN28" s="8"/>
       <c r="AO28" s="8"/>
       <c r="AP28" s="8"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="38"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="48"/>
       <c r="AZ28" s="12"/>
       <c r="BE28" s="12"/>
       <c r="BJ28" s="8"/>
@@ -4380,8 +4380,8 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
       <c r="AP29" s="8"/>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="38"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="48"/>
       <c r="AZ29" s="12"/>
       <c r="BE29" s="12"/>
       <c r="BJ29" s="8"/>
@@ -4449,8 +4449,8 @@
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
-      <c r="AQ30" s="37"/>
-      <c r="AR30" s="38"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="48"/>
       <c r="AZ30" s="12"/>
       <c r="BE30" s="12"/>
       <c r="BJ30" s="8"/>
@@ -4518,8 +4518,8 @@
       <c r="AN31" s="8"/>
       <c r="AO31" s="8"/>
       <c r="AP31" s="8"/>
-      <c r="AQ31" s="37"/>
-      <c r="AR31" s="38"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="48"/>
       <c r="AZ31" s="12"/>
       <c r="BE31" s="12"/>
       <c r="BJ31" s="8"/>
@@ -4587,8 +4587,8 @@
       <c r="AN32" s="8"/>
       <c r="AO32" s="8"/>
       <c r="AP32" s="8"/>
-      <c r="AQ32" s="37"/>
-      <c r="AR32" s="38"/>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="48"/>
       <c r="AZ32" s="12"/>
       <c r="BE32" s="12"/>
       <c r="BJ32" s="8"/>
@@ -4656,8 +4656,8 @@
       <c r="AN33" s="8"/>
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
-      <c r="AQ33" s="37"/>
-      <c r="AR33" s="38"/>
+      <c r="AQ33" s="47"/>
+      <c r="AR33" s="48"/>
       <c r="AZ33" s="12"/>
       <c r="BE33" s="12"/>
       <c r="BJ33" s="8"/>
@@ -4725,8 +4725,8 @@
       <c r="AN34" s="8"/>
       <c r="AO34" s="8"/>
       <c r="AP34" s="8"/>
-      <c r="AQ34" s="37"/>
-      <c r="AR34" s="38"/>
+      <c r="AQ34" s="47"/>
+      <c r="AR34" s="48"/>
       <c r="AZ34" s="12"/>
       <c r="BE34" s="12"/>
       <c r="BJ34" s="8"/>
@@ -4878,8 +4878,8 @@
       <c r="AN36" s="8"/>
       <c r="AO36" s="8"/>
       <c r="AP36" s="8"/>
-      <c r="AQ36" s="37"/>
-      <c r="AR36" s="38"/>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="48"/>
       <c r="AS36" s="4"/>
       <c r="AT36" s="4"/>
       <c r="AU36" s="4"/>
@@ -6347,13 +6347,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="F1:AZ1"/>
-    <mergeCell ref="BF2:BN2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="BF1:BN1"/>
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="AS5:AY6"/>
+    <mergeCell ref="AQ5:AR6"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BA2:BE2"/>
+    <mergeCell ref="AZ5:BD6"/>
+    <mergeCell ref="AE2:AZ2"/>
+    <mergeCell ref="BE5:CA6"/>
+    <mergeCell ref="BT1:CB1"/>
+    <mergeCell ref="BT2:CB2"/>
+    <mergeCell ref="BO1:BS1"/>
+    <mergeCell ref="BO2:BS2"/>
     <mergeCell ref="AQ36:AR36"/>
     <mergeCell ref="AQ34:AR34"/>
     <mergeCell ref="AQ31:AR31"/>
@@ -6370,22 +6379,13 @@
     <mergeCell ref="AQ26:AR26"/>
     <mergeCell ref="AQ28:AR28"/>
     <mergeCell ref="AQ27:AR27"/>
-    <mergeCell ref="AS5:AY6"/>
-    <mergeCell ref="AQ5:AR6"/>
-    <mergeCell ref="BA1:BE1"/>
-    <mergeCell ref="BA2:BE2"/>
-    <mergeCell ref="AZ5:BD6"/>
-    <mergeCell ref="AE2:AZ2"/>
-    <mergeCell ref="BE5:CA6"/>
-    <mergeCell ref="BT1:CB1"/>
-    <mergeCell ref="BT2:CB2"/>
-    <mergeCell ref="BO1:BS1"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AQ16:AR16"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="F1:AZ1"/>
+    <mergeCell ref="BF2:BN2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="BF1:BN1"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6410,168 +6410,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="70" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="71"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="50"/>
-      <c r="BK1" s="70" t="s">
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="75"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
+      <c r="BI1" s="38"/>
+      <c r="BJ1" s="39"/>
+      <c r="BK1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="49"/>
-      <c r="BO1" s="50"/>
-      <c r="BP1" s="65"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
+      <c r="BL1" s="38"/>
+      <c r="BM1" s="38"/>
+      <c r="BN1" s="38"/>
+      <c r="BO1" s="39"/>
+      <c r="BP1" s="69"/>
+      <c r="BQ1" s="38"/>
+      <c r="BR1" s="38"/>
+      <c r="BS1" s="38"/>
+      <c r="BT1" s="38"/>
+      <c r="BU1" s="38"/>
     </row>
     <row r="2" spans="1:73" ht="27.75" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="72" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="72" t="s">
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="53"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="53"/>
-      <c r="BK2" s="72" t="s">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="76"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+      <c r="BE2" s="41"/>
+      <c r="BF2" s="41"/>
+      <c r="BG2" s="41"/>
+      <c r="BH2" s="41"/>
+      <c r="BI2" s="41"/>
+      <c r="BJ2" s="42"/>
+      <c r="BK2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
-      <c r="BO2" s="53"/>
-      <c r="BP2" s="64"/>
-      <c r="BQ2" s="52"/>
-      <c r="BR2" s="52"/>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="52"/>
-      <c r="BU2" s="52"/>
+      <c r="BL2" s="41"/>
+      <c r="BM2" s="41"/>
+      <c r="BN2" s="41"/>
+      <c r="BO2" s="42"/>
+      <c r="BP2" s="68"/>
+      <c r="BQ2" s="41"/>
+      <c r="BR2" s="41"/>
+      <c r="BS2" s="41"/>
+      <c r="BT2" s="41"/>
+      <c r="BU2" s="41"/>
     </row>
     <row r="3" spans="1:73" ht="14.25" customHeight="1">
       <c r="A3" s="2"/>
@@ -6762,49 +6762,49 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="66" t="s">
+      <c r="AM5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="67" t="s">
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="67" t="s">
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="67" t="s">
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="41"/>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41"/>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="41"/>
-      <c r="BP5" s="41"/>
-      <c r="BQ5" s="41"/>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="41"/>
-      <c r="BT5" s="41"/>
-      <c r="BU5" s="41"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
+      <c r="BQ5" s="50"/>
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50"/>
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="50"/>
     </row>
     <row r="6" spans="1:73" ht="14.25">
       <c r="A6" s="5"/>
@@ -6845,41 +6845,41 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="43"/>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="44"/>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="43"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="44"/>
-      <c r="AY6" s="44"/>
-      <c r="AZ6" s="45"/>
-      <c r="BA6" s="68"/>
-      <c r="BB6" s="69"/>
-      <c r="BC6" s="69"/>
-      <c r="BD6" s="69"/>
-      <c r="BE6" s="69"/>
-      <c r="BF6" s="69"/>
-      <c r="BG6" s="69"/>
-      <c r="BH6" s="69"/>
-      <c r="BI6" s="69"/>
-      <c r="BJ6" s="69"/>
-      <c r="BK6" s="69"/>
-      <c r="BL6" s="69"/>
-      <c r="BM6" s="69"/>
-      <c r="BN6" s="69"/>
-      <c r="BO6" s="69"/>
-      <c r="BP6" s="69"/>
-      <c r="BQ6" s="69"/>
-      <c r="BR6" s="69"/>
-      <c r="BS6" s="69"/>
-      <c r="BT6" s="69"/>
-      <c r="BU6" s="69"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="52"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="52"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="54"/>
+      <c r="BA6" s="72"/>
+      <c r="BB6" s="73"/>
+      <c r="BC6" s="73"/>
+      <c r="BD6" s="73"/>
+      <c r="BE6" s="73"/>
+      <c r="BF6" s="73"/>
+      <c r="BG6" s="73"/>
+      <c r="BH6" s="73"/>
+      <c r="BI6" s="73"/>
+      <c r="BJ6" s="73"/>
+      <c r="BK6" s="73"/>
+      <c r="BL6" s="73"/>
+      <c r="BM6" s="73"/>
+      <c r="BN6" s="73"/>
+      <c r="BO6" s="73"/>
+      <c r="BP6" s="73"/>
+      <c r="BQ6" s="73"/>
+      <c r="BR6" s="73"/>
+      <c r="BS6" s="73"/>
+      <c r="BT6" s="73"/>
+      <c r="BU6" s="73"/>
     </row>
     <row r="7" spans="1:73" ht="14.25" customHeight="1">
       <c r="A7" s="5"/>
@@ -10333,11 +10333,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F2:Y2"/>
     <mergeCell ref="BP2:BU2"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="AM5:AN6"/>
@@ -10351,6 +10346,11 @@
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
